--- a/WorkFlow.xlsx
+++ b/WorkFlow.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\K-Gen\Documents\CS-498\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EE7F3ECA-CB58-47CF-B184-C45C9A215C4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E9C210B-7547-447E-B190-CB7C4E7283C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{C6DFAC24-F52D-4DDE-A854-D1B49789A709}"/>
   </bookViews>
@@ -54,9 +54,6 @@
     <t>Data analyst of assignment 2 for supervision</t>
   </si>
   <si>
-    <t>Learning more on pandas</t>
-  </si>
-  <si>
     <t>Completed</t>
   </si>
   <si>
@@ -70,6 +67,9 @@
   </si>
   <si>
     <t>Train/ Test Data</t>
+  </si>
+  <si>
+    <t>Learning more on pandas, numpy, scikit</t>
   </si>
 </sst>
 </file>
@@ -498,7 +498,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E00FB42-F436-49C8-9835-5C08D4BF0F18}">
   <dimension ref="A1:B43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
@@ -521,7 +521,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -529,7 +529,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -537,7 +537,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -545,7 +545,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -553,7 +553,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -561,7 +561,7 @@
         <v>8</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -569,31 +569,31 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">

--- a/WorkFlow.xlsx
+++ b/WorkFlow.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\K-Gen\Documents\CS-498\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E9C210B-7547-447E-B190-CB7C4E7283C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68F255F8-1FFD-4CB3-A190-22E89DD28B7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{C6DFAC24-F52D-4DDE-A854-D1B49789A709}"/>
+    <workbookView xWindow="7575" yWindow="3210" windowWidth="28800" windowHeight="15345" xr2:uid="{C6DFAC24-F52D-4DDE-A854-D1B49789A709}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
   <si>
     <t>Status</t>
   </si>
@@ -57,9 +57,6 @@
     <t>Completed</t>
   </si>
   <si>
-    <t>Running</t>
-  </si>
-  <si>
     <t>Recreate dataset with only numbers</t>
   </si>
   <si>
@@ -69,7 +66,7 @@
     <t>Train/ Test Data</t>
   </si>
   <si>
-    <t>Learning more on pandas, numpy, scikit</t>
+    <t>Implementation on pandas to parse data</t>
   </si>
 </sst>
 </file>
@@ -499,7 +496,7 @@
   <dimension ref="A1:B43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -561,7 +558,7 @@
         <v>8</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -569,31 +566,31 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">

--- a/WorkFlow.xlsx
+++ b/WorkFlow.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\K-Gen\Documents\CS-498\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68F255F8-1FFD-4CB3-A190-22E89DD28B7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE76C467-D946-46CD-9A7C-BE4218055DDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7575" yWindow="3210" windowWidth="28800" windowHeight="15345" xr2:uid="{C6DFAC24-F52D-4DDE-A854-D1B49789A709}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{C6DFAC24-F52D-4DDE-A854-D1B49789A709}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
   <si>
     <t>Status</t>
   </si>
@@ -67,6 +67,9 @@
   </si>
   <si>
     <t>Implementation on pandas to parse data</t>
+  </si>
+  <si>
+    <t>Running</t>
   </si>
 </sst>
 </file>
@@ -496,7 +499,7 @@
   <dimension ref="A1:B43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -558,7 +561,7 @@
         <v>8</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -566,7 +569,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
